--- a/Suivi_demandes_AUTOMATISATION.xlsx
+++ b/Suivi_demandes_AUTOMATISATION.xlsx
@@ -21499,7 +21499,7 @@
         <v>45814</v>
       </c>
       <c r="O173" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="P173" s="24" t="inlineStr">
         <is>
